--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2022/Табель 01.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2022/Табель 01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="15120" windowHeight="7776" tabRatio="874" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="15120" windowHeight="7776" tabRatio="874" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -983,16 +983,31 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1004,21 +1019,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1124,6 +1124,15 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1133,15 +1142,6 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1172,16 +1172,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1798,14 +1798,14 @@
       <c r="Z10" s="116"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109" t="s">
+      <c r="B11" s="113"/>
+      <c r="C11" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="115" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1856,28 +1856,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="105" t="s">
+      <c r="U11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="104" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="89"/>
-      <c r="Y11" s="105">
+      <c r="Y11" s="104">
         <v>22</v>
       </c>
-      <c r="Z11" s="104">
+      <c r="Z11" s="107">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -1926,22 +1926,22 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="107"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="105"/>
       <c r="X12" s="90"/>
       <c r="Y12" s="106"/>
-      <c r="Z12" s="104"/>
+      <c r="Z12" s="107"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>31.5</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1990,25 +1990,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="107"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="105"/>
       <c r="X13" s="90"/>
-      <c r="Y13" s="105">
+      <c r="Y13" s="104">
         <f>AB13</f>
         <v>75.5</v>
       </c>
-      <c r="Z13" s="104"/>
+      <c r="Z13" s="107"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>75.5</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -2057,12 +2057,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
       <c r="W14" s="106"/>
       <c r="X14" s="91"/>
       <c r="Y14" s="106"/>
-      <c r="Z14" s="104"/>
+      <c r="Z14" s="107"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>44</v>
@@ -2147,18 +2147,18 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="92" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="115">
+      <c r="C18" s="108"/>
+      <c r="D18" s="109">
         <f>Мельницький!C36</f>
         <v>44593</v>
       </c>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
       <c r="L18" s="92" t="s">
         <v>98</v>
       </c>
@@ -2556,16 +2556,16 @@
       <c r="Z10" s="116"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="113">
         <v>1</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="115" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -2616,28 +2616,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="105" t="s">
+      <c r="U11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="104" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="164"/>
-      <c r="Y11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="168">
+      <c r="Y11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="170">
         <v>4770</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2686,18 +2686,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="107"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="105"/>
       <c r="X12" s="165"/>
       <c r="Y12" s="106"/>
-      <c r="Z12" s="168"/>
+      <c r="Z12" s="170"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2746,20 +2746,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="107"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="105"/>
       <c r="X13" s="165"/>
-      <c r="Y13" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="168"/>
+      <c r="Y13" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="170"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2808,18 +2808,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
       <c r="W14" s="106"/>
       <c r="X14" s="166"/>
       <c r="Y14" s="106"/>
-      <c r="Z14" s="168"/>
+      <c r="Z14" s="170"/>
     </row>
     <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="114"/>
+      <c r="C15" s="108"/>
       <c r="D15" s="66">
         <f>Мельницький!C36</f>
         <v>44593</v>
@@ -3226,16 +3226,16 @@
       <c r="Y10" s="116"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="113">
         <v>1</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="115" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3286,29 +3286,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="105">
+      <c r="U11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="104">
         <v>21</v>
       </c>
-      <c r="Y11" s="105"/>
+      <c r="Y11" s="104"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3357,17 +3357,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3416,23 +3416,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107">
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105">
         <v>42</v>
       </c>
-      <c r="Y13" s="107"/>
+      <c r="Y13" s="105"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3481,8 +3481,8 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
       <c r="W14" s="106"/>
       <c r="X14" s="106"/>
       <c r="Y14" s="106"/>
@@ -3952,16 +3952,16 @@
       <c r="Y10" s="116"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="113">
         <v>1</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="115" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -4012,16 +4012,16 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="105">
+      <c r="U11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="104">
         <v>21</v>
       </c>
       <c r="Y11" s="157"/>
@@ -4031,10 +4031,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4083,17 +4083,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="107"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="105"/>
       <c r="X12" s="106"/>
       <c r="Y12" s="158"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4142,20 +4142,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="105">
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="104">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
       <c r="Y13" s="158"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4204,8 +4204,8 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
       <c r="W14" s="106"/>
       <c r="X14" s="106"/>
       <c r="Y14" s="159"/>
@@ -4673,10 +4673,10 @@
       <c r="Z10" s="116"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="113">
         <v>2</v>
       </c>
       <c r="C11" s="131" t="s">
@@ -4733,26 +4733,26 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="105" t="s">
+      <c r="U11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="104" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="105">
+      <c r="Y11" s="104">
         <v>21</v>
       </c>
-      <c r="Z11" s="104">
+      <c r="Z11" s="107">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="131"/>
       <c r="D12" s="132"/>
       <c r="E12" s="26" t="s">
@@ -4803,16 +4803,16 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="107"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="105"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="106"/>
-      <c r="Z12" s="104"/>
+      <c r="Z12" s="107"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="131"/>
       <c r="D13" s="132"/>
       <c r="E13" s="27">
@@ -4863,18 +4863,18 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="107"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="105"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="105">
+      <c r="Y13" s="104">
         <v>42</v>
       </c>
-      <c r="Z13" s="104"/>
+      <c r="Z13" s="107"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="131"/>
       <c r="D14" s="132"/>
       <c r="E14" s="26">
@@ -4925,18 +4925,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
       <c r="W14" s="106"/>
       <c r="X14" s="24"/>
       <c r="Y14" s="106"/>
-      <c r="Z14" s="104"/>
+      <c r="Z14" s="107"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="114"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -5055,7 +5055,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -5321,13 +5321,13 @@
       <c r="Y10" s="116"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="115" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5378,20 +5378,20 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
+      <c r="T11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="105">
+      <c r="X11" s="104">
         <v>19</v>
       </c>
-      <c r="Y11" s="104">
+      <c r="Y11" s="107">
         <v>6565</v>
       </c>
       <c r="Z11" s="2">
@@ -5400,9 +5400,9 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="26" t="s">
         <v>13</v>
       </c>
@@ -5451,12 +5451,12 @@
       <c r="S12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="107"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="105"/>
       <c r="W12" s="23"/>
       <c r="X12" s="106"/>
-      <c r="Y12" s="104"/>
+      <c r="Y12" s="107"/>
       <c r="Z12" s="2" t="s">
         <v>52</v>
       </c>
@@ -5466,9 +5466,9 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5517,24 +5517,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="107"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="105"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="105">
+      <c r="X13" s="104">
         <f>Z11+Z13</f>
         <v>151</v>
       </c>
-      <c r="Y13" s="104"/>
+      <c r="Y13" s="107"/>
       <c r="Z13" s="2">
         <f>SUM(D14:S14)</f>
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -5583,21 +5583,21 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
+      <c r="T14" s="112"/>
+      <c r="U14" s="112"/>
       <c r="V14" s="106"/>
       <c r="W14" s="24"/>
       <c r="X14" s="106"/>
-      <c r="Y14" s="104"/>
+      <c r="Y14" s="107"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="108">
-        <v>2</v>
-      </c>
-      <c r="B15" s="109" t="s">
+      <c r="A15" s="113">
+        <v>2</v>
+      </c>
+      <c r="B15" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="115" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5648,20 +5648,20 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="105" t="s">
+      <c r="T15" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="104" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="105">
+      <c r="X15" s="104">
         <v>19</v>
       </c>
-      <c r="Y15" s="104">
+      <c r="Y15" s="107">
         <v>6565</v>
       </c>
       <c r="Z15" s="2">
@@ -5670,9 +5670,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="26" t="s">
         <v>13</v>
       </c>
@@ -5721,12 +5721,12 @@
       <c r="S16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T16" s="112"/>
-      <c r="U16" s="112"/>
-      <c r="V16" s="107"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="105"/>
       <c r="W16" s="44"/>
       <c r="X16" s="106"/>
-      <c r="Y16" s="104"/>
+      <c r="Y16" s="107"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5736,9 +5736,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5787,24 +5787,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="112"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="107"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="105"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="105">
+      <c r="X17" s="104">
         <f>Z15+Z17</f>
         <v>151</v>
       </c>
-      <c r="Y17" s="104"/>
+      <c r="Y17" s="107"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -5853,21 +5853,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="112"/>
       <c r="V18" s="106"/>
       <c r="W18" s="43"/>
       <c r="X18" s="106"/>
-      <c r="Y18" s="104"/>
+      <c r="Y18" s="107"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="108">
+      <c r="A19" s="113">
         <v>3</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="115" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5918,20 +5918,20 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="105" t="s">
+      <c r="T19" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="104" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="105">
+      <c r="X19" s="104">
         <v>19</v>
       </c>
-      <c r="Y19" s="104">
+      <c r="Y19" s="107">
         <v>6825</v>
       </c>
       <c r="Z19" s="2">
@@ -5940,9 +5940,9 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="26" t="s">
         <v>13</v>
       </c>
@@ -5991,12 +5991,12 @@
       <c r="S20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T20" s="112"/>
-      <c r="U20" s="112"/>
-      <c r="V20" s="107"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="105"/>
       <c r="W20" s="55"/>
       <c r="X20" s="106"/>
-      <c r="Y20" s="104"/>
+      <c r="Y20" s="107"/>
       <c r="Z20" s="2" t="s">
         <v>52</v>
       </c>
@@ -6006,9 +6006,9 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="108"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6057,24 +6057,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="112"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="107"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="105"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="105">
+      <c r="X21" s="104">
         <f>Z19+Z21</f>
         <v>151</v>
       </c>
-      <c r="Y21" s="104"/>
+      <c r="Y21" s="107"/>
       <c r="Z21" s="2">
         <f>SUM(D22:S22)</f>
         <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -6123,21 +6123,21 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
       <c r="V22" s="106"/>
       <c r="W22" s="54"/>
       <c r="X22" s="106"/>
-      <c r="Y22" s="104"/>
+      <c r="Y22" s="107"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108">
+      <c r="A23" s="113">
         <v>4</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="115" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6188,20 +6188,20 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="105" t="s">
+      <c r="T23" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="104" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="105">
+      <c r="X23" s="104">
         <v>19</v>
       </c>
-      <c r="Y23" s="104">
+      <c r="Y23" s="107">
         <v>6565</v>
       </c>
       <c r="Z23" s="2">
@@ -6210,9 +6210,9 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="26" t="s">
         <v>13</v>
       </c>
@@ -6261,12 +6261,12 @@
       <c r="S24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="107"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="105"/>
       <c r="W24" s="55"/>
       <c r="X24" s="106"/>
-      <c r="Y24" s="104"/>
+      <c r="Y24" s="107"/>
       <c r="Z24" s="2" t="s">
         <v>52</v>
       </c>
@@ -6276,9 +6276,9 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6327,24 +6327,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="107"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="105"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="105">
+      <c r="X25" s="104">
         <f>Z23+Z25</f>
         <v>151</v>
       </c>
-      <c r="Y25" s="104"/>
+      <c r="Y25" s="107"/>
       <c r="Z25" s="2">
         <f>SUM(D26:S26)</f>
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="108"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -6393,15 +6393,15 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
       <c r="V26" s="106"/>
       <c r="W26" s="54"/>
       <c r="X26" s="106"/>
-      <c r="Y26" s="104"/>
+      <c r="Y26" s="107"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="108">
+      <c r="A27" s="113">
         <v>5</v>
       </c>
       <c r="B27" s="131" t="s">
@@ -6458,20 +6458,20 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="105" t="s">
+      <c r="T27" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="104" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="105">
+      <c r="X27" s="104">
         <v>19</v>
       </c>
-      <c r="Y27" s="104">
+      <c r="Y27" s="107">
         <v>6565</v>
       </c>
       <c r="Z27" s="2">
@@ -6480,7 +6480,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="108"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="131"/>
       <c r="C28" s="132"/>
       <c r="D28" s="26" t="s">
@@ -6531,12 +6531,12 @@
       <c r="S28" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
-      <c r="V28" s="107"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="105"/>
       <c r="W28" s="55"/>
       <c r="X28" s="106"/>
-      <c r="Y28" s="104"/>
+      <c r="Y28" s="107"/>
       <c r="Z28" s="2" t="s">
         <v>52</v>
       </c>
@@ -6546,7 +6546,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="108"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="131"/>
       <c r="C29" s="132"/>
       <c r="D29" s="27">
@@ -6597,22 +6597,22 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="107"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="105"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="105">
+      <c r="X29" s="104">
         <f>Z27+Z29</f>
         <v>151</v>
       </c>
-      <c r="Y29" s="104"/>
+      <c r="Y29" s="107"/>
       <c r="Z29" s="2">
         <f>SUM(D30:S30)</f>
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="108"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="131"/>
       <c r="C30" s="132"/>
       <c r="D30" s="26">
@@ -6663,21 +6663,21 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="113"/>
-      <c r="U30" s="113"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="112"/>
       <c r="V30" s="106"/>
       <c r="W30" s="54"/>
       <c r="X30" s="106"/>
-      <c r="Y30" s="104"/>
+      <c r="Y30" s="107"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="108">
+      <c r="A31" s="113">
         <v>6</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="115" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6728,20 +6728,20 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="105" t="s">
+      <c r="T31" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="104" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="105">
+      <c r="X31" s="104">
         <v>19</v>
       </c>
-      <c r="Y31" s="104">
+      <c r="Y31" s="107">
         <v>6565</v>
       </c>
       <c r="Z31" s="2">
@@ -6750,9 +6750,9 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="108"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="26" t="s">
         <v>13</v>
       </c>
@@ -6801,12 +6801,12 @@
       <c r="S32" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="107"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="105"/>
       <c r="W32" s="47"/>
       <c r="X32" s="106"/>
-      <c r="Y32" s="104"/>
+      <c r="Y32" s="107"/>
       <c r="Z32" s="2" t="s">
         <v>52</v>
       </c>
@@ -6816,9 +6816,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="108"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6867,24 +6867,24 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="112"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="107"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="105"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="105">
+      <c r="X33" s="104">
         <f>Z31+Z33</f>
         <v>151</v>
       </c>
-      <c r="Y33" s="104"/>
+      <c r="Y33" s="107"/>
       <c r="Z33" s="2">
         <f>SUM(D34:S34)</f>
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="108"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="26">
         <v>8</v>
       </c>
@@ -6933,12 +6933,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="113"/>
-      <c r="U34" s="113"/>
+      <c r="T34" s="112"/>
+      <c r="U34" s="112"/>
       <c r="V34" s="106"/>
       <c r="W34" s="46"/>
       <c r="X34" s="106"/>
-      <c r="Y34" s="104"/>
+      <c r="Y34" s="107"/>
     </row>
     <row r="35" spans="1:26" s="32" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="31"/>
@@ -6953,10 +6953,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="114" t="s">
+      <c r="A36" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="114"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="33">
         <v>44593</v>
       </c>
@@ -7348,10 +7348,10 @@
       <c r="Y8" s="116"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108">
+      <c r="A9" s="113">
         <v>1</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="114" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="140" t="s">
@@ -7405,28 +7405,28 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="105">
+      <c r="T9" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="104">
         <v>19</v>
       </c>
-      <c r="Y9" s="104">
+      <c r="Y9" s="107">
         <v>6825</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
-      <c r="B10" s="109"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="141"/>
       <c r="D10" s="26" t="s">
         <v>13</v>
@@ -7476,20 +7476,20 @@
       <c r="S10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="105"/>
       <c r="X10" s="106"/>
-      <c r="Y10" s="104"/>
+      <c r="Y10" s="107"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
-      <c r="B11" s="109"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="141"/>
       <c r="D11" s="27">
         <v>17</v>
@@ -7539,19 +7539,19 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="105">
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="104">
         <f>Z10+Z12</f>
         <v>151</v>
       </c>
-      <c r="Y11" s="104"/>
+      <c r="Y11" s="107"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="142"/>
       <c r="D12" s="26">
         <v>8</v>
@@ -7601,25 +7601,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
+      <c r="T12" s="112"/>
+      <c r="U12" s="112"/>
       <c r="V12" s="106"/>
       <c r="W12" s="106"/>
       <c r="X12" s="106"/>
-      <c r="Y12" s="104"/>
+      <c r="Y12" s="107"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108">
-        <v>2</v>
-      </c>
-      <c r="B13" s="109" t="s">
+      <c r="A13" s="113">
+        <v>2</v>
+      </c>
+      <c r="B13" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="110" t="str">
+      <c r="C13" s="115" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -7671,22 +7671,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="105">
+      <c r="T13" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="104">
         <v>19</v>
       </c>
-      <c r="Y13" s="104">
+      <c r="Y13" s="107">
         <v>6825</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -7698,9 +7698,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="26" t="s">
         <v>13</v>
       </c>
@@ -7749,12 +7749,12 @@
       <c r="S14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T14" s="112"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
       <c r="X14" s="106"/>
-      <c r="Y14" s="104"/>
+      <c r="Y14" s="107"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>63</v>
@@ -7765,9 +7765,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="108"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -7816,20 +7816,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="112"/>
-      <c r="U15" s="112"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="105">
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="104">
         <f>Z14+Z16</f>
         <v>151</v>
       </c>
-      <c r="Y15" s="104"/>
+      <c r="Y15" s="107"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -7878,12 +7878,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="113"/>
-      <c r="U16" s="113"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="112"/>
       <c r="V16" s="106"/>
       <c r="W16" s="106"/>
       <c r="X16" s="106"/>
-      <c r="Y16" s="104"/>
+      <c r="Y16" s="107"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>88</v>
@@ -7951,7 +7951,7 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="111" t="s">
+      <c r="T17" s="110" t="s">
         <v>8</v>
       </c>
       <c r="U17" s="146" t="s">
@@ -7966,7 +7966,7 @@
       <c r="X17" s="143">
         <v>19</v>
       </c>
-      <c r="Y17" s="104">
+      <c r="Y17" s="107">
         <v>6565</v>
       </c>
     </row>
@@ -8022,12 +8022,12 @@
       <c r="S18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T18" s="112"/>
+      <c r="T18" s="111"/>
       <c r="U18" s="147"/>
       <c r="V18" s="145"/>
       <c r="W18" s="145"/>
       <c r="X18" s="144"/>
-      <c r="Y18" s="104"/>
+      <c r="Y18" s="107"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>31.5</v>
@@ -8085,15 +8085,15 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="112"/>
+      <c r="T19" s="111"/>
       <c r="U19" s="147"/>
       <c r="V19" s="145"/>
       <c r="W19" s="145"/>
-      <c r="X19" s="105">
+      <c r="X19" s="104">
         <f>Z18+Z20</f>
         <v>75.5</v>
       </c>
-      <c r="Y19" s="104"/>
+      <c r="Y19" s="107"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="149"/>
@@ -8147,12 +8147,12 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="113"/>
+      <c r="T20" s="112"/>
       <c r="U20" s="148"/>
       <c r="V20" s="144"/>
       <c r="W20" s="144"/>
       <c r="X20" s="106"/>
-      <c r="Y20" s="104"/>
+      <c r="Y20" s="107"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>44</v>
@@ -8216,22 +8216,22 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="105">
+      <c r="T21" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="104">
         <v>19</v>
       </c>
-      <c r="Y21" s="104">
+      <c r="Y21" s="107">
         <v>6565</v>
       </c>
     </row>
@@ -8287,12 +8287,12 @@
       <c r="S22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T22" s="112"/>
-      <c r="U22" s="112"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="104"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="107"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>63</v>
@@ -8350,15 +8350,15 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="105">
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="105"/>
+      <c r="X23" s="104">
         <f>Z22+Z24</f>
         <v>151</v>
       </c>
-      <c r="Y23" s="104"/>
+      <c r="Y23" s="107"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="135"/>
@@ -8412,12 +8412,12 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
       <c r="V24" s="106"/>
       <c r="W24" s="106"/>
       <c r="X24" s="106"/>
-      <c r="Y24" s="104"/>
+      <c r="Y24" s="107"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>88</v>
@@ -8481,22 +8481,22 @@
       <c r="S25" s="25">
         <v>16</v>
       </c>
-      <c r="T25" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="105">
+      <c r="T25" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="104">
         <v>19</v>
       </c>
-      <c r="Y25" s="104">
+      <c r="Y25" s="107">
         <v>6565</v>
       </c>
     </row>
@@ -8552,12 +8552,12 @@
       <c r="S26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="107"/>
-      <c r="W26" s="107"/>
-      <c r="X26" s="107"/>
-      <c r="Y26" s="104"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="107"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>63</v>
@@ -8615,15 +8615,15 @@
       <c r="S27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="107"/>
-      <c r="W27" s="107"/>
-      <c r="X27" s="105">
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="104">
         <f>Z26+Z28</f>
         <v>151</v>
       </c>
-      <c r="Y27" s="104"/>
+      <c r="Y27" s="107"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="135"/>
@@ -8677,12 +8677,12 @@
       <c r="S28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="113"/>
-      <c r="U28" s="113"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="112"/>
       <c r="V28" s="106"/>
       <c r="W28" s="106"/>
       <c r="X28" s="106"/>
-      <c r="Y28" s="104"/>
+      <c r="Y28" s="107"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>88</v>
@@ -8722,10 +8722,10 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="114" t="s">
+      <c r="A30" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="114"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="96">
         <f>Мельницький!C36</f>
         <v>44593</v>
@@ -8962,8 +8962,8 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -9207,7 +9207,7 @@
       <c r="A9" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="111"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="122" t="s">
         <v>4</v>
       </c>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="122"/>
-      <c r="B10" s="113"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="122"/>
       <c r="D10" s="122"/>
       <c r="E10" s="122"/>
@@ -9283,11 +9283,11 @@
       <c r="A11" s="133">
         <v>1</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="115" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -9338,22 +9338,22 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="154"/>
-      <c r="V11" s="154"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="154"/>
-      <c r="Y11" s="105">
-        <v>22</v>
-      </c>
-      <c r="Z11" s="151">
-        <v>6566</v>
+      <c r="U11" s="151"/>
+      <c r="V11" s="151"/>
+      <c r="W11" s="151"/>
+      <c r="X11" s="151"/>
+      <c r="Y11" s="104">
+        <v>19</v>
+      </c>
+      <c r="Z11" s="154">
+        <v>6565</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="134"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -9402,18 +9402,18 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="155"/>
-      <c r="V12" s="155"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
       <c r="Y12" s="106"/>
-      <c r="Z12" s="152"/>
+      <c r="Z12" s="155"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="134"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -9462,20 +9462,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="155"/>
-      <c r="V13" s="155"/>
-      <c r="W13" s="155"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="105">
-        <v>87</v>
-      </c>
-      <c r="Z13" s="152"/>
+      <c r="U13" s="152"/>
+      <c r="V13" s="152"/>
+      <c r="W13" s="152"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="104">
+        <v>75.5</v>
+      </c>
+      <c r="Z13" s="155"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="135"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="110"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -9524,22 +9524,22 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="156"/>
-      <c r="V14" s="156"/>
-      <c r="W14" s="156"/>
-      <c r="X14" s="156"/>
+      <c r="U14" s="153"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="153"/>
+      <c r="X14" s="153"/>
       <c r="Y14" s="106"/>
-      <c r="Z14" s="153"/>
+      <c r="Z14" s="156"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="133">
         <v>2</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111" t="s">
+      <c r="B15" s="110"/>
+      <c r="C15" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="115" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="25">
@@ -9590,22 +9590,22 @@
       <c r="T15" s="25">
         <v>16</v>
       </c>
-      <c r="U15" s="154"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="154"/>
-      <c r="X15" s="154"/>
-      <c r="Y15" s="105">
+      <c r="U15" s="151"/>
+      <c r="V15" s="151"/>
+      <c r="W15" s="151"/>
+      <c r="X15" s="151"/>
+      <c r="Y15" s="104">
         <v>19</v>
       </c>
-      <c r="Z15" s="151">
-        <v>6567</v>
+      <c r="Z15" s="154">
+        <v>6565</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="134"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="110"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="26" t="s">
         <v>13</v>
       </c>
@@ -9654,18 +9654,18 @@
       <c r="T16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U16" s="155"/>
-      <c r="V16" s="155"/>
-      <c r="W16" s="155"/>
-      <c r="X16" s="155"/>
+      <c r="U16" s="152"/>
+      <c r="V16" s="152"/>
+      <c r="W16" s="152"/>
+      <c r="X16" s="152"/>
       <c r="Y16" s="106"/>
-      <c r="Z16" s="152"/>
+      <c r="Z16" s="155"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="134"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="115"/>
       <c r="E17" s="27">
         <v>17</v>
       </c>
@@ -9714,20 +9714,20 @@
       <c r="T17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="155"/>
-      <c r="V17" s="155"/>
-      <c r="W17" s="155"/>
-      <c r="X17" s="155"/>
-      <c r="Y17" s="105">
-        <v>75</v>
-      </c>
-      <c r="Z17" s="152"/>
+      <c r="U17" s="152"/>
+      <c r="V17" s="152"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="104">
+        <v>75.5</v>
+      </c>
+      <c r="Z17" s="155"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="135"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="110"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="26">
         <v>4</v>
       </c>
@@ -9776,12 +9776,12 @@
       <c r="T18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U18" s="156"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="156"/>
+      <c r="U18" s="153"/>
+      <c r="V18" s="153"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="153"/>
       <c r="Y18" s="106"/>
-      <c r="Z18" s="153"/>
+      <c r="Z18" s="156"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -9812,10 +9812,10 @@
       <c r="Z19" s="88"/>
     </row>
     <row r="20" spans="1:26" s="102" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="114"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="103">
         <f>Мельницький!C36</f>
         <v>44593</v>
@@ -9879,10 +9879,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="X15:X18"/>
-    <mergeCell ref="Y15:Y16"/>
     <mergeCell ref="Z15:Z18"/>
     <mergeCell ref="Y17:Y18"/>
     <mergeCell ref="A15:A18"/>
@@ -9910,6 +9906,10 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="X15:X18"/>
+    <mergeCell ref="Y15:Y16"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
@@ -10224,7 +10224,7 @@
       <c r="Y10" s="116"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
       <c r="B11" s="133">
@@ -10284,16 +10284,16 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="105">
+      <c r="U11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="104">
         <v>22</v>
       </c>
       <c r="Y11" s="157">
@@ -10305,7 +10305,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="134"/>
       <c r="C12" s="162"/>
       <c r="D12" s="141"/>
@@ -10357,14 +10357,14 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="107"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="105"/>
       <c r="X12" s="106"/>
       <c r="Y12" s="158"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="134"/>
       <c r="C13" s="162"/>
       <c r="D13" s="141"/>
@@ -10416,17 +10416,17 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="105">
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="104">
         <f>Z11+Z14</f>
         <v>151</v>
       </c>
       <c r="Y13" s="158"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="135"/>
       <c r="C14" s="163"/>
       <c r="D14" s="142"/>
@@ -10478,8 +10478,8 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
       <c r="W14" s="106"/>
       <c r="X14" s="106"/>
       <c r="Y14" s="159"/>
@@ -10941,13 +10941,13 @@
       <c r="Y10" s="116"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="115" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="25">
@@ -10998,28 +10998,28 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
+      <c r="T11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="164"/>
-      <c r="X11" s="105">
+      <c r="X11" s="104">
         <v>22</v>
       </c>
-      <c r="Y11" s="104">
+      <c r="Y11" s="107">
         <v>6000</v>
       </c>
       <c r="Z11" s="99"/>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="26" t="s">
         <v>13</v>
       </c>
@@ -11068,21 +11068,21 @@
       <c r="S12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="107"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="105"/>
       <c r="W12" s="165"/>
       <c r="X12" s="106"/>
-      <c r="Y12" s="104"/>
+      <c r="Y12" s="107"/>
       <c r="Z12" s="99">
         <f>SUM(D12:S12)</f>
         <v>15.75</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -11131,20 +11131,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="107"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="105"/>
       <c r="W13" s="165"/>
-      <c r="X13" s="169">
+      <c r="X13" s="167">
         <f>Z12+Z14</f>
         <v>37.75</v>
       </c>
-      <c r="Y13" s="104"/>
+      <c r="Y13" s="107"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="26">
         <v>2</v>
       </c>
@@ -11193,25 +11193,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
+      <c r="T14" s="112"/>
+      <c r="U14" s="112"/>
       <c r="V14" s="106"/>
       <c r="W14" s="166"/>
-      <c r="X14" s="170"/>
-      <c r="Y14" s="104"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="107"/>
       <c r="Z14" s="98">
         <f>SUM(D14:S14)</f>
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="108">
-        <v>2</v>
-      </c>
-      <c r="B15" s="109" t="s">
+      <c r="A15" s="113">
+        <v>2</v>
+      </c>
+      <c r="B15" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="115" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="25">
@@ -11262,28 +11262,28 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="105" t="s">
+      <c r="T15" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="104" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="164"/>
-      <c r="X15" s="105">
+      <c r="X15" s="104">
         <v>22</v>
       </c>
-      <c r="Y15" s="104">
+      <c r="Y15" s="107">
         <v>6000</v>
       </c>
       <c r="Z15" s="99"/>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="26" t="s">
         <v>13</v>
       </c>
@@ -11332,21 +11332,21 @@
       <c r="S16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T16" s="112"/>
-      <c r="U16" s="112"/>
-      <c r="V16" s="107"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="105"/>
       <c r="W16" s="165"/>
       <c r="X16" s="106"/>
-      <c r="Y16" s="104"/>
+      <c r="Y16" s="107"/>
       <c r="Z16" s="99">
         <f>SUM(D16:S16)</f>
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -11395,20 +11395,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="112"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="107"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="105"/>
       <c r="W17" s="165"/>
-      <c r="X17" s="105">
+      <c r="X17" s="104">
         <f>Z16+Z18</f>
         <v>151</v>
       </c>
-      <c r="Y17" s="104"/>
+      <c r="Y17" s="107"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -11457,12 +11457,12 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="112"/>
       <c r="V18" s="106"/>
       <c r="W18" s="166"/>
       <c r="X18" s="106"/>
-      <c r="Y18" s="104"/>
+      <c r="Y18" s="107"/>
       <c r="Z18" s="98">
         <f>SUM(D18:S18)</f>
         <v>88</v>
@@ -11923,14 +11923,14 @@
       <c r="Z10" s="116"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109" t="s">
+      <c r="B11" s="113"/>
+      <c r="C11" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="115" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -11981,20 +11981,20 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="105" t="s">
+      <c r="U11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="104" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="105">
+      <c r="Y11" s="104">
         <v>22</v>
       </c>
-      <c r="Z11" s="104">
+      <c r="Z11" s="107">
         <v>6060</v>
       </c>
       <c r="AA11" s="2">
@@ -12003,10 +12003,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -12055,18 +12055,18 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="107"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="105"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="106"/>
-      <c r="Z12" s="104"/>
+      <c r="Z12" s="107"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -12115,24 +12115,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="107"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="105"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="105">
+      <c r="Y13" s="104">
         <v>43.5</v>
       </c>
-      <c r="Z13" s="104"/>
+      <c r="Z13" s="107"/>
       <c r="AB13" s="2">
         <f>AA11+AA14</f>
         <v>37.75</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -12181,12 +12181,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
       <c r="W14" s="106"/>
       <c r="X14" s="49"/>
       <c r="Y14" s="106"/>
-      <c r="Z14" s="104"/>
+      <c r="Z14" s="107"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -12271,18 +12271,18 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="167">
+      <c r="C18" s="108"/>
+      <c r="D18" s="169">
         <f>Мельницький!C36</f>
         <v>44593</v>
       </c>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
       <c r="L18" s="39" t="s">
         <v>60</v>
       </c>
@@ -12596,13 +12596,13 @@
       <c r="Y9" s="116"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108">
+      <c r="A10" s="113">
         <v>1</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="115" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12653,29 +12653,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="104">
+      <c r="T10" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="107">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12724,17 +12724,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
       <c r="X11" s="106"/>
-      <c r="Y11" s="104"/>
+      <c r="Y11" s="107"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -12783,19 +12783,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="104"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="107"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -12844,12 +12844,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
+      <c r="T13" s="112"/>
+      <c r="U13" s="112"/>
       <c r="V13" s="106"/>
       <c r="W13" s="106"/>
       <c r="X13" s="106"/>
-      <c r="Y13" s="104"/>
+      <c r="Y13" s="107"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="68"/>
@@ -12864,10 +12864,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="114"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="71">
         <f>Мельницький!C36</f>
         <v>44593</v>
@@ -13286,16 +13286,16 @@
       <c r="Z10" s="116"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="113">
         <v>1</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="115" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -13346,28 +13346,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="105" t="s">
+      <c r="U11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="104" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="164"/>
-      <c r="Y11" s="105">
+      <c r="Y11" s="104">
         <v>20</v>
       </c>
-      <c r="Z11" s="168">
+      <c r="Z11" s="170">
         <v>4770</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13416,18 +13416,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="107"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="105"/>
       <c r="X12" s="165"/>
       <c r="Y12" s="106"/>
-      <c r="Z12" s="168"/>
+      <c r="Z12" s="170"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13476,20 +13476,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="107"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="105"/>
       <c r="X13" s="165"/>
-      <c r="Y13" s="105">
+      <c r="Y13" s="104">
         <v>160</v>
       </c>
-      <c r="Z13" s="168"/>
+      <c r="Z13" s="170"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13538,18 +13538,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
       <c r="W14" s="106"/>
       <c r="X14" s="166"/>
       <c r="Y14" s="106"/>
-      <c r="Z14" s="168"/>
+      <c r="Z14" s="170"/>
     </row>
     <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="114"/>
+      <c r="C15" s="108"/>
       <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44593</v>

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2022/Табель 01.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2022/Табель 01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="15120" windowHeight="7776" tabRatio="874" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="15120" windowHeight="7776" tabRatio="874" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -8962,7 +8962,7 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
@@ -10635,7 +10635,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:S14"/>
+      <selection activeCell="Y11" sqref="Y11:Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -11012,7 +11012,7 @@
         <v>22</v>
       </c>
       <c r="Y11" s="107">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Z11" s="99"/>
     </row>
@@ -11276,7 +11276,7 @@
         <v>22</v>
       </c>
       <c r="Y15" s="107">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Z15" s="99"/>
     </row>
@@ -11615,14 +11615,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
     <col min="5" max="11" width="4.33203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="5" style="2" customWidth="1"/>
@@ -11995,7 +11996,7 @@
         <v>22</v>
       </c>
       <c r="Z11" s="107">
-        <v>6060</v>
+        <v>6565</v>
       </c>
       <c r="AA11" s="2">
         <f>SUM(E12:T12)</f>
